--- a/Code/Results/Cases/Case_5_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.48568158992246</v>
+        <v>7.965722762100373</v>
       </c>
       <c r="C2">
-        <v>7.564110720260217</v>
+        <v>5.141302184793021</v>
       </c>
       <c r="D2">
-        <v>4.929213935329026</v>
+        <v>5.033115134359021</v>
       </c>
       <c r="E2">
-        <v>14.53766513045975</v>
+        <v>12.80736667787291</v>
       </c>
       <c r="F2">
-        <v>18.53093158748688</v>
+        <v>24.52540140325567</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>13.65245404362557</v>
+        <v>20.88698452704859</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.52448684531559</v>
+        <v>8.019165173221673</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.61909876578479</v>
+        <v>13.34531255437553</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.95830983644633</v>
+        <v>21.98715207275361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.74548873549441</v>
+        <v>7.654023975218778</v>
       </c>
       <c r="C3">
-        <v>7.182526372829219</v>
+        <v>4.955890905370541</v>
       </c>
       <c r="D3">
-        <v>4.780559640415037</v>
+        <v>4.977371347440244</v>
       </c>
       <c r="E3">
-        <v>13.68636619101348</v>
+        <v>12.60303087404094</v>
       </c>
       <c r="F3">
-        <v>18.20982345299325</v>
+        <v>24.55218966510247</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>13.79339473911731</v>
+        <v>20.97441576261757</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.93438972135756</v>
+        <v>7.732999789525001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.69183501005372</v>
+        <v>13.1669280627894</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.93900022997195</v>
+        <v>22.05587897094495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26642427687605</v>
+        <v>7.456945490711633</v>
       </c>
       <c r="C4">
-        <v>6.937602818620501</v>
+        <v>4.837442103993507</v>
       </c>
       <c r="D4">
-        <v>4.686346902682505</v>
+        <v>4.94231755823872</v>
       </c>
       <c r="E4">
-        <v>13.14970769416573</v>
+        <v>12.48047349263396</v>
       </c>
       <c r="F4">
-        <v>18.0282750504065</v>
+        <v>24.57542221950061</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>13.89117460176347</v>
+        <v>21.03228952619626</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.55499616345956</v>
+        <v>7.550151859790227</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.09251814847283</v>
+        <v>13.05933914864445</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.94112775021194</v>
+        <v>22.10305660923381</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06505693115448</v>
+        <v>7.375323452522463</v>
       </c>
       <c r="C5">
-        <v>6.835175047657454</v>
+        <v>4.788058318119004</v>
       </c>
       <c r="D5">
-        <v>4.64724841608874</v>
+        <v>4.927831937099579</v>
       </c>
       <c r="E5">
-        <v>12.92772589886984</v>
+        <v>12.43133169749124</v>
       </c>
       <c r="F5">
-        <v>17.9582002348472</v>
+        <v>24.58659232514336</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>13.93372099688918</v>
+        <v>21.05692594679654</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.39617652844994</v>
+        <v>7.476200280887971</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.84074005464533</v>
+        <v>13.01603650315322</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.94537166972749</v>
+        <v>22.12353069553694</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.03125030630027</v>
+        <v>7.361694797733367</v>
       </c>
       <c r="C6">
-        <v>6.818010597212197</v>
+        <v>4.779792200726477</v>
       </c>
       <c r="D6">
-        <v>4.64071452239831</v>
+        <v>4.925414683452067</v>
       </c>
       <c r="E6">
-        <v>12.8906748192895</v>
+        <v>12.4232221718813</v>
       </c>
       <c r="F6">
-        <v>17.94679955042345</v>
+        <v>24.58854983368147</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>13.94094532621662</v>
+        <v>21.06108032764654</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.36955283739626</v>
+        <v>7.467170679401525</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.79847623032278</v>
+        <v>13.00888031663797</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.94627621977735</v>
+        <v>22.12700573098022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.26373338578963</v>
+        <v>7.455849845605031</v>
       </c>
       <c r="C7">
-        <v>6.936231968086898</v>
+        <v>4.836780550537441</v>
       </c>
       <c r="D7">
-        <v>4.685822419769887</v>
+        <v>4.942123004239892</v>
       </c>
       <c r="E7">
-        <v>13.146726957358</v>
+        <v>12.47980741243556</v>
       </c>
       <c r="F7">
-        <v>18.02731421013027</v>
+        <v>24.57556597457791</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>13.89173762568808</v>
+        <v>21.03261752230959</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.55287120908199</v>
+        <v>7.549130545273555</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.08915316705052</v>
+        <v>13.05875289551945</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.94117149751594</v>
+        <v>22.10332767787502</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23558269944429</v>
+        <v>7.85949920118712</v>
       </c>
       <c r="C8">
-        <v>7.434774718065507</v>
+        <v>5.078352582384415</v>
       </c>
       <c r="D8">
-        <v>4.878586516352602</v>
+        <v>5.014070449092886</v>
       </c>
       <c r="E8">
-        <v>14.24715055730285</v>
+        <v>12.73635148813495</v>
       </c>
       <c r="F8">
-        <v>18.41696615811523</v>
+        <v>24.53322811958222</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>13.69863878958696</v>
+        <v>20.91626022354453</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.32460633082513</v>
+        <v>7.922014561031916</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.30558628744275</v>
+        <v>13.28343496710814</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.94866635325217</v>
+        <v>22.00981381961502</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.94544951531304</v>
+        <v>8.601234424360607</v>
       </c>
       <c r="C9">
-        <v>8.326344107663362</v>
+        <v>5.513886891620851</v>
       </c>
       <c r="D9">
-        <v>5.232002392878043</v>
+        <v>5.148299990107659</v>
       </c>
       <c r="E9">
-        <v>16.31136058670975</v>
+        <v>13.25932287702096</v>
       </c>
       <c r="F9">
-        <v>19.30514149561443</v>
+        <v>24.50414849026399</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>13.41522543215358</v>
+        <v>20.72139623791922</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.69994689329427</v>
+        <v>8.594070039828432</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.45450992405729</v>
+        <v>13.73706833516171</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.08042291320055</v>
+        <v>21.86607813232402</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.08195482199384</v>
+        <v>9.110477561380435</v>
       </c>
       <c r="C10">
-        <v>8.927335132998749</v>
+        <v>5.808712712280439</v>
       </c>
       <c r="D10">
-        <v>5.475174640630485</v>
+        <v>5.24235191485486</v>
       </c>
       <c r="E10">
-        <v>17.92033377456055</v>
+        <v>13.65140948460387</v>
       </c>
       <c r="F10">
-        <v>20.03288493734373</v>
+        <v>24.51576988589902</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>13.27397381089619</v>
+        <v>20.59862204425933</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.62390051949894</v>
+        <v>9.048888468086567</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.89178873242792</v>
+        <v>14.07512027044107</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.25669795857917</v>
+        <v>21.78482519913877</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57311701866426</v>
+        <v>9.33349042001338</v>
       </c>
       <c r="C11">
-        <v>9.188853634097093</v>
+        <v>5.937057401422086</v>
       </c>
       <c r="D11">
-        <v>5.581965726553089</v>
+        <v>5.284069260736405</v>
       </c>
       <c r="E11">
-        <v>18.62331817302446</v>
+        <v>13.83059310120407</v>
       </c>
       <c r="F11">
-        <v>20.38004248077647</v>
+        <v>24.52822101173205</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>13.22635210320823</v>
+        <v>20.54721539386346</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.02520465290036</v>
+        <v>9.246858962109867</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51567323137201</v>
+        <v>14.22927561087032</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.35580089695665</v>
+        <v>21.7531840052971</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.75541143259737</v>
+        <v>9.416634733166649</v>
       </c>
       <c r="C12">
-        <v>9.286172642748296</v>
+        <v>5.984806324020222</v>
       </c>
       <c r="D12">
-        <v>5.621836341807315</v>
+        <v>5.299706755941391</v>
       </c>
       <c r="E12">
-        <v>18.88547160860326</v>
+        <v>13.8984909589647</v>
       </c>
       <c r="F12">
-        <v>20.51379132779759</v>
+        <v>24.53396456655469</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>13.21089605756379</v>
+        <v>20.52838970739781</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.17442750621374</v>
+        <v>9.320508049894579</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.74768904748629</v>
+        <v>14.28764930269593</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.39617752084567</v>
+        <v>21.74197012221238</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.7163151911484</v>
+        <v>9.3987871006254</v>
       </c>
       <c r="C13">
-        <v>9.265289417906393</v>
+        <v>5.974560972415772</v>
       </c>
       <c r="D13">
-        <v>5.613275054204808</v>
+        <v>5.296346156374552</v>
       </c>
       <c r="E13">
-        <v>18.82919046120273</v>
+        <v>13.88386708427758</v>
       </c>
       <c r="F13">
-        <v>20.48488480543321</v>
+        <v>24.53268188013468</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>13.21410712462302</v>
+        <v>20.53241562197859</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.14241171103075</v>
+        <v>9.304705513978819</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.69790747581473</v>
+        <v>14.27507842103506</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.38735300914584</v>
+        <v>21.74435103576289</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58818848020836</v>
+        <v>9.340357251516494</v>
       </c>
       <c r="C14">
-        <v>9.196894450104825</v>
+        <v>5.941002934310095</v>
       </c>
       <c r="D14">
-        <v>5.585257401962608</v>
+        <v>5.285359008945608</v>
       </c>
       <c r="E14">
-        <v>18.64496621011063</v>
+        <v>13.8361786099712</v>
       </c>
       <c r="F14">
-        <v>20.39100038517147</v>
+        <v>24.52867293627394</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>13.2250277800636</v>
+        <v>20.54565373807727</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.03753628758506</v>
+        <v>9.252944710849183</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53484577322534</v>
+        <v>14.2340783936486</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.35906489878302</v>
+        <v>21.75224602635088</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50922620932643</v>
+        <v>9.304395513631739</v>
       </c>
       <c r="C15">
-        <v>9.154777526435726</v>
+        <v>5.920336048848339</v>
       </c>
       <c r="D15">
-        <v>5.568021202772123</v>
+        <v>5.278608044382687</v>
       </c>
       <c r="E15">
-        <v>18.53159942705079</v>
+        <v>13.80697175704942</v>
       </c>
       <c r="F15">
-        <v>20.33379058921063</v>
+        <v>24.52635122747274</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>13.23205828294995</v>
+        <v>20.5538459855503</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.9729398137826</v>
+        <v>9.221067145753718</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.43441636880464</v>
+        <v>14.20896286649525</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.34211230578698</v>
+        <v>21.75718202471987</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.04933761707647</v>
+        <v>9.095723630263338</v>
       </c>
       <c r="C16">
-        <v>8.910004769617249</v>
+        <v>5.800206940111624</v>
       </c>
       <c r="D16">
-        <v>5.468116922619795</v>
+        <v>5.239603551681982</v>
       </c>
       <c r="E16">
-        <v>17.87381880565113</v>
+        <v>13.63970963483619</v>
       </c>
       <c r="F16">
-        <v>20.01051903882043</v>
+        <v>24.51510022490796</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>13.27743635967456</v>
+        <v>20.60207117220594</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.59729089415636</v>
+        <v>9.035767936540422</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.85041970184288</v>
+        <v>14.06504861764753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.2506130620065</v>
+        <v>21.787000342659</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.76060315591752</v>
+        <v>8.96544862930509</v>
       </c>
       <c r="C17">
-        <v>8.756797603212709</v>
+        <v>5.725016138413457</v>
       </c>
       <c r="D17">
-        <v>5.405834348136204</v>
+        <v>5.215397506003725</v>
       </c>
       <c r="E17">
-        <v>17.4629527296584</v>
+        <v>13.53725736105801</v>
       </c>
       <c r="F17">
-        <v>19.81630720273141</v>
+        <v>24.51003224199992</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>13.30966376581594</v>
+        <v>20.63279528418384</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.36196489781548</v>
+        <v>8.919780200733564</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.48453511526715</v>
+        <v>13.97681784869511</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.19941875166254</v>
+        <v>21.8066578298347</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.59209706747971</v>
+        <v>8.889707392373952</v>
       </c>
       <c r="C18">
-        <v>8.667558972573373</v>
+        <v>5.68122610695287</v>
       </c>
       <c r="D18">
-        <v>5.369651556574126</v>
+        <v>5.201374738014434</v>
       </c>
       <c r="E18">
-        <v>17.2239014754272</v>
+        <v>13.47841109920351</v>
       </c>
       <c r="F18">
-        <v>19.70611920899296</v>
+        <v>24.50779179285754</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>13.32975416938647</v>
+        <v>20.65088515367997</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.22482251059762</v>
+        <v>8.852228425000545</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.27126510965129</v>
+        <v>13.9261082682991</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.17174607946352</v>
+        <v>21.81846499689932</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.53462538628586</v>
+        <v>8.863925565900804</v>
       </c>
       <c r="C19">
-        <v>8.637152552862393</v>
+        <v>5.666307150132978</v>
       </c>
       <c r="D19">
-        <v>5.357339537795142</v>
+        <v>5.196609880101023</v>
       </c>
       <c r="E19">
-        <v>17.14249045061088</v>
+        <v>13.45850304328195</v>
       </c>
       <c r="F19">
-        <v>19.66907292686216</v>
+        <v>24.50714909866644</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>13.33681784674367</v>
+        <v>20.65708183776954</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.17808160254148</v>
+        <v>8.829213626259497</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.19856872901144</v>
+        <v>13.90894718262748</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.16267709400432</v>
+        <v>21.82254860889826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.79159119958688</v>
+        <v>8.979400992260974</v>
       </c>
       <c r="C20">
-        <v>8.773222522936841</v>
+        <v>5.733076621983919</v>
       </c>
       <c r="D20">
-        <v>5.412501781747309</v>
+        <v>5.217984687531545</v>
       </c>
       <c r="E20">
-        <v>17.50697211060716</v>
+        <v>13.54815567507469</v>
       </c>
       <c r="F20">
-        <v>19.83682452887209</v>
+        <v>24.51050193583576</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>13.30607095144641</v>
+        <v>20.62948135721955</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.38720101135687</v>
+        <v>8.932214357619424</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.52377583102987</v>
+        <v>13.98620659300732</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.20468403365708</v>
+        <v>21.80451341542687</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.62592259238293</v>
+        <v>9.357555410732175</v>
       </c>
       <c r="C21">
-        <v>9.217030188980729</v>
+        <v>5.950883040073371</v>
       </c>
       <c r="D21">
-        <v>5.593502436563523</v>
+        <v>5.288590592153175</v>
       </c>
       <c r="E21">
-        <v>18.69918634587203</v>
+        <v>13.8501852241268</v>
       </c>
       <c r="F21">
-        <v>20.4185146436685</v>
+        <v>24.52982256314471</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>13.22174865213028</v>
+        <v>20.54174797383128</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.06841519592669</v>
+        <v>9.26818413291684</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.58285530700569</v>
+        <v>14.24612157299832</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.36729549452999</v>
+        <v>21.74990621318276</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.14966391795409</v>
+        <v>9.597066772581899</v>
       </c>
       <c r="C22">
-        <v>9.497105385838575</v>
+        <v>6.088255351276716</v>
       </c>
       <c r="D22">
-        <v>5.708474447735382</v>
+        <v>5.333800434807976</v>
       </c>
       <c r="E22">
-        <v>19.45481288926079</v>
+        <v>14.04780851368942</v>
       </c>
       <c r="F22">
-        <v>20.8120060530291</v>
+        <v>24.54844358428128</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>13.18175359088846</v>
+        <v>20.48814564366165</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.49764559954888</v>
+        <v>9.480064684582491</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.25037424696141</v>
+        <v>14.41595712096998</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.490230904842</v>
+        <v>21.71869459519734</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.8720969834182</v>
+        <v>9.469952109593855</v>
       </c>
       <c r="C23">
-        <v>9.348536957181382</v>
+        <v>6.015399099753579</v>
       </c>
       <c r="D23">
-        <v>5.647421084935133</v>
+        <v>5.309758740456101</v>
       </c>
       <c r="E23">
-        <v>19.05363594672532</v>
+        <v>13.94233582018649</v>
       </c>
       <c r="F23">
-        <v>20.60078211242364</v>
+        <v>24.53795757022237</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>13.20165324119816</v>
+        <v>20.51641170678642</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.27002040905754</v>
+        <v>9.367694209941261</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89633718873466</v>
+        <v>14.32533371420367</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.42305239316813</v>
+        <v>21.7349422819033</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.77758932066357</v>
+        <v>8.973095754246845</v>
       </c>
       <c r="C24">
-        <v>8.765800422554975</v>
+        <v>5.729434225673981</v>
       </c>
       <c r="D24">
-        <v>5.409488603853663</v>
+        <v>5.216815353643788</v>
       </c>
       <c r="E24">
-        <v>17.4870797991675</v>
+        <v>13.54322837066218</v>
       </c>
       <c r="F24">
-        <v>19.8275440742699</v>
+        <v>24.51028749014061</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>13.307690410099</v>
+        <v>20.63097825622491</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.37579752701964</v>
+        <v>8.926595579064315</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.50604419779067</v>
+        <v>13.98196188929646</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.20229812864824</v>
+        <v>21.8054813297787</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.50392969018608</v>
+        <v>8.406505697084169</v>
       </c>
       <c r="C25">
-        <v>8.094563543916774</v>
+        <v>5.400362215860284</v>
       </c>
       <c r="D25">
-        <v>5.139192368174236</v>
+        <v>5.112762138202227</v>
       </c>
       <c r="E25">
-        <v>15.74874445717566</v>
+        <v>13.11615760077366</v>
       </c>
       <c r="F25">
-        <v>19.05159367053216</v>
+        <v>24.50622602851738</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>13.48081301870008</v>
+        <v>20.77053715954398</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.34295312664947</v>
+        <v>8.418916833089551</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.89825221596695</v>
+        <v>13.61328190770182</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.03139578338569</v>
+        <v>21.90069884956073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.965722762100373</v>
+        <v>12.48568158992247</v>
       </c>
       <c r="C2">
-        <v>5.141302184793021</v>
+        <v>7.564110720260177</v>
       </c>
       <c r="D2">
-        <v>5.033115134359021</v>
+        <v>4.929213935328963</v>
       </c>
       <c r="E2">
-        <v>12.80736667787291</v>
+        <v>14.53766513045976</v>
       </c>
       <c r="F2">
-        <v>24.52540140325567</v>
+        <v>18.53093158748692</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>20.88698452704859</v>
+        <v>13.6524540436256</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.019165173221673</v>
+        <v>11.52448684531554</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.34531255437553</v>
+        <v>14.61909876578475</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.98715207275361</v>
+        <v>14.95830983644636</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.654023975218778</v>
+        <v>11.74548873549447</v>
       </c>
       <c r="C3">
-        <v>4.955890905370541</v>
+        <v>7.182526372829207</v>
       </c>
       <c r="D3">
-        <v>4.977371347440244</v>
+        <v>4.780559640415053</v>
       </c>
       <c r="E3">
-        <v>12.60303087404094</v>
+        <v>13.68636619101353</v>
       </c>
       <c r="F3">
-        <v>24.55218966510247</v>
+        <v>18.20982345299313</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>20.97441576261757</v>
+        <v>13.7933947391172</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.732999789525001</v>
+        <v>10.93438972135763</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.1669280627894</v>
+        <v>13.69183501005371</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.05587897094495</v>
+        <v>14.93900022997182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.456945490711633</v>
+        <v>11.26642427687612</v>
       </c>
       <c r="C4">
-        <v>4.837442103993507</v>
+        <v>6.937602818620279</v>
       </c>
       <c r="D4">
-        <v>4.94231755823872</v>
+        <v>4.686346902682382</v>
       </c>
       <c r="E4">
-        <v>12.48047349263396</v>
+        <v>13.14970769416576</v>
       </c>
       <c r="F4">
-        <v>24.57542221950061</v>
+        <v>18.02827505040647</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>21.03228952619626</v>
+        <v>13.89117460176331</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.550151859790227</v>
+        <v>10.55499616345953</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.05933914864445</v>
+        <v>13.09251814847284</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.10305660923381</v>
+        <v>14.94112775021185</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.375323452522463</v>
+        <v>11.06505693115442</v>
       </c>
       <c r="C5">
-        <v>4.788058318119004</v>
+        <v>6.835175047657614</v>
       </c>
       <c r="D5">
-        <v>4.927831937099579</v>
+        <v>4.647248416089026</v>
       </c>
       <c r="E5">
-        <v>12.43133169749124</v>
+        <v>12.92772589886983</v>
       </c>
       <c r="F5">
-        <v>24.58659232514336</v>
+        <v>17.95820023484709</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>21.05692594679654</v>
+        <v>13.93372099688924</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.476200280887971</v>
+        <v>10.39617652844991</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.01603650315322</v>
+        <v>12.84074005464534</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.12353069553694</v>
+        <v>14.94537166972751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.361694797733367</v>
+        <v>11.03125030630027</v>
       </c>
       <c r="C6">
-        <v>4.779792200726477</v>
+        <v>6.818010597212271</v>
       </c>
       <c r="D6">
-        <v>4.925414683452067</v>
+        <v>4.640714522398326</v>
       </c>
       <c r="E6">
-        <v>12.4232221718813</v>
+        <v>12.8906748192895</v>
       </c>
       <c r="F6">
-        <v>24.58854983368147</v>
+        <v>17.94679955042343</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>21.06108032764654</v>
+        <v>13.94094532621663</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.467170679401525</v>
+        <v>10.36955283739628</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.00888031663797</v>
+        <v>12.79847623032284</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.12700573098022</v>
+        <v>14.94627621977732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.455849845605031</v>
+        <v>11.26373338578958</v>
       </c>
       <c r="C7">
-        <v>4.836780550537441</v>
+        <v>6.936231968087235</v>
       </c>
       <c r="D7">
-        <v>4.942123004239892</v>
+        <v>4.685822419769647</v>
       </c>
       <c r="E7">
-        <v>12.47980741243556</v>
+        <v>13.14672695735802</v>
       </c>
       <c r="F7">
-        <v>24.57556597457791</v>
+        <v>18.02731421013034</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>21.03261752230959</v>
+        <v>13.8917376256882</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.549130545273555</v>
+        <v>10.55287120908201</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.05875289551945</v>
+        <v>13.08915316705047</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.10332767787502</v>
+        <v>14.94117149751594</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.85949920118712</v>
+        <v>12.23558269944425</v>
       </c>
       <c r="C8">
-        <v>5.078352582384415</v>
+        <v>7.434774718065587</v>
       </c>
       <c r="D8">
-        <v>5.014070449092886</v>
+        <v>4.878586516352629</v>
       </c>
       <c r="E8">
-        <v>12.73635148813495</v>
+        <v>14.24715055730285</v>
       </c>
       <c r="F8">
-        <v>24.53322811958222</v>
+        <v>18.41696615811523</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>20.91626022354453</v>
+        <v>13.69863878958692</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.922014561031916</v>
+        <v>11.32460633082513</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.28343496710814</v>
+        <v>14.30558628744275</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.00981381961502</v>
+        <v>14.94866635325214</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.601234424360607</v>
+        <v>13.94544951531308</v>
       </c>
       <c r="C9">
-        <v>5.513886891620851</v>
+        <v>8.326344107663401</v>
       </c>
       <c r="D9">
-        <v>5.148299990107659</v>
+        <v>5.232002392878087</v>
       </c>
       <c r="E9">
-        <v>13.25932287702096</v>
+        <v>16.31136058670977</v>
       </c>
       <c r="F9">
-        <v>24.50414849026399</v>
+        <v>19.30514149561445</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>20.72139623791922</v>
+        <v>13.41522543215364</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.594070039828432</v>
+        <v>12.69994689329427</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.73706833516171</v>
+        <v>16.45450992405731</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.86607813232402</v>
+        <v>15.08042291320056</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.110477561380435</v>
+        <v>15.0819548219938</v>
       </c>
       <c r="C10">
-        <v>5.808712712280439</v>
+        <v>8.927335132998621</v>
       </c>
       <c r="D10">
-        <v>5.24235191485486</v>
+        <v>5.475174640630391</v>
       </c>
       <c r="E10">
-        <v>13.65140948460387</v>
+        <v>17.9203337745605</v>
       </c>
       <c r="F10">
-        <v>24.51576988589902</v>
+        <v>20.03288493734391</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>20.59862204425933</v>
+        <v>13.27397381089636</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.048888468086567</v>
+        <v>13.62390051949889</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.07512027044107</v>
+        <v>17.89178873242787</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.78482519913877</v>
+        <v>15.25669795857935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.33349042001338</v>
+        <v>15.57311701866435</v>
       </c>
       <c r="C11">
-        <v>5.937057401422086</v>
+        <v>9.188853634096978</v>
       </c>
       <c r="D11">
-        <v>5.284069260736405</v>
+        <v>5.581965726553187</v>
       </c>
       <c r="E11">
-        <v>13.83059310120407</v>
+        <v>18.62331817302446</v>
       </c>
       <c r="F11">
-        <v>24.52822101173205</v>
+        <v>20.38004248077645</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>20.54721539386346</v>
+        <v>13.22635210320813</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.246858962109867</v>
+        <v>14.02520465290039</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.22927561087032</v>
+        <v>18.51567323137202</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.7531840052971</v>
+        <v>15.35580089695661</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.416634733166649</v>
+        <v>15.75541143259737</v>
       </c>
       <c r="C12">
-        <v>5.984806324020222</v>
+        <v>9.28617264274828</v>
       </c>
       <c r="D12">
-        <v>5.299706755941391</v>
+        <v>5.62183634180736</v>
       </c>
       <c r="E12">
-        <v>13.8984909589647</v>
+        <v>18.88547160860326</v>
       </c>
       <c r="F12">
-        <v>24.53396456655469</v>
+        <v>20.51379132779767</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>20.52838970739781</v>
+        <v>13.21089605756391</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.320508049894579</v>
+        <v>14.17442750621373</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.28764930269593</v>
+        <v>18.74768904748629</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.74197012221238</v>
+        <v>15.39617752084578</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.3987871006254</v>
+        <v>15.7163151911484</v>
       </c>
       <c r="C13">
-        <v>5.974560972415772</v>
+        <v>9.265289417906439</v>
       </c>
       <c r="D13">
-        <v>5.296346156374552</v>
+        <v>5.613275054204973</v>
       </c>
       <c r="E13">
-        <v>13.88386708427758</v>
+        <v>18.82919046120279</v>
       </c>
       <c r="F13">
-        <v>24.53268188013468</v>
+        <v>20.48488480543321</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>20.53241562197859</v>
+        <v>13.21410712462307</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.304705513978819</v>
+        <v>14.14241171103075</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.27507842103506</v>
+        <v>18.69790747581479</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.74435103576289</v>
+        <v>15.38735300914587</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.340357251516494</v>
+        <v>15.58818848020839</v>
       </c>
       <c r="C14">
-        <v>5.941002934310095</v>
+        <v>9.196894450104883</v>
       </c>
       <c r="D14">
-        <v>5.285359008945608</v>
+        <v>5.585257401962578</v>
       </c>
       <c r="E14">
-        <v>13.8361786099712</v>
+        <v>18.64496621011061</v>
       </c>
       <c r="F14">
-        <v>24.52867293627394</v>
+        <v>20.39100038517148</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>20.54565373807727</v>
+        <v>13.22502778006358</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.252944710849183</v>
+        <v>14.03753628758507</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.2340783936486</v>
+        <v>18.53484577322532</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.75224602635088</v>
+        <v>15.35906489878304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.304395513631739</v>
+        <v>15.50922620932637</v>
       </c>
       <c r="C15">
-        <v>5.920336048848339</v>
+        <v>9.154777526435726</v>
       </c>
       <c r="D15">
-        <v>5.278608044382687</v>
+        <v>5.568021202772109</v>
       </c>
       <c r="E15">
-        <v>13.80697175704942</v>
+        <v>18.5315994270508</v>
       </c>
       <c r="F15">
-        <v>24.52635122747274</v>
+        <v>20.3337905892107</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>20.5538459855503</v>
+        <v>13.23205828295007</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.221067145753718</v>
+        <v>13.97293981378253</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.20896286649525</v>
+        <v>18.43441636880462</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.75718202471987</v>
+        <v>15.34211230578704</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.095723630263338</v>
+        <v>15.04933761707652</v>
       </c>
       <c r="C16">
-        <v>5.800206940111624</v>
+        <v>8.910004769617073</v>
       </c>
       <c r="D16">
-        <v>5.239603551681982</v>
+        <v>5.468116922619655</v>
       </c>
       <c r="E16">
-        <v>13.63970963483619</v>
+        <v>17.87381880565111</v>
       </c>
       <c r="F16">
-        <v>24.51510022490796</v>
+        <v>20.01051903882053</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>20.60207117220594</v>
+        <v>13.2774363596746</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.035767936540422</v>
+        <v>13.59729089415636</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.06504861764753</v>
+        <v>17.85041970184287</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.787000342659</v>
+        <v>15.2506130620066</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.96544862930509</v>
+        <v>14.76060315591757</v>
       </c>
       <c r="C17">
-        <v>5.725016138413457</v>
+        <v>8.756797603212528</v>
       </c>
       <c r="D17">
-        <v>5.215397506003725</v>
+        <v>5.405834348136239</v>
       </c>
       <c r="E17">
-        <v>13.53725736105801</v>
+        <v>17.4629527296584</v>
       </c>
       <c r="F17">
-        <v>24.51003224199992</v>
+        <v>19.81630720273139</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>20.63279528418384</v>
+        <v>13.30966376581589</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.919780200733564</v>
+        <v>13.36196489781544</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.97681784869511</v>
+        <v>17.48453511526713</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.8066578298347</v>
+        <v>15.19941875166252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.889707392373952</v>
+        <v>14.59209706747976</v>
       </c>
       <c r="C18">
-        <v>5.68122610695287</v>
+        <v>8.667558972573271</v>
       </c>
       <c r="D18">
-        <v>5.201374738014434</v>
+        <v>5.36965155657412</v>
       </c>
       <c r="E18">
-        <v>13.47841109920351</v>
+        <v>17.22390147542723</v>
       </c>
       <c r="F18">
-        <v>24.50779179285754</v>
+        <v>19.70611920899289</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>20.65088515367997</v>
+        <v>13.32975416938634</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.852228425000545</v>
+        <v>13.22482251059766</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.9261082682991</v>
+        <v>17.27126510965132</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.81846499689932</v>
+        <v>15.17174607946343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.863925565900804</v>
+        <v>14.53462538628589</v>
       </c>
       <c r="C19">
-        <v>5.666307150132978</v>
+        <v>8.637152552862407</v>
       </c>
       <c r="D19">
-        <v>5.196609880101023</v>
+        <v>5.357339537795238</v>
       </c>
       <c r="E19">
-        <v>13.45850304328195</v>
+        <v>17.14249045061089</v>
       </c>
       <c r="F19">
-        <v>24.50714909866644</v>
+        <v>19.66907292686207</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>20.65708183776954</v>
+        <v>13.33681784674358</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.829213626259497</v>
+        <v>13.17808160254149</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.90894718262748</v>
+        <v>17.19856872901146</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.82254860889826</v>
+        <v>15.16267709400423</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.979400992260974</v>
+        <v>14.79159119958689</v>
       </c>
       <c r="C20">
-        <v>5.733076621983919</v>
+        <v>8.773222522936903</v>
       </c>
       <c r="D20">
-        <v>5.217984687531545</v>
+        <v>5.412501781747156</v>
       </c>
       <c r="E20">
-        <v>13.54815567507469</v>
+        <v>17.50697211060718</v>
       </c>
       <c r="F20">
-        <v>24.51050193583576</v>
+        <v>19.83682452887202</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>20.62948135721955</v>
+        <v>13.30607095144629</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.932214357619424</v>
+        <v>13.38720101135691</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.98620659300732</v>
+        <v>17.5237758310299</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.80451341542687</v>
+        <v>15.20468403365695</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.357555410732175</v>
+        <v>15.62592259238292</v>
       </c>
       <c r="C21">
-        <v>5.950883040073371</v>
+        <v>9.217030188980701</v>
       </c>
       <c r="D21">
-        <v>5.288590592153175</v>
+        <v>5.593502436563813</v>
       </c>
       <c r="E21">
-        <v>13.8501852241268</v>
+        <v>18.6991863458721</v>
       </c>
       <c r="F21">
-        <v>24.52982256314471</v>
+        <v>20.41851464366847</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>20.54174797383128</v>
+        <v>13.22174865213033</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.26818413291684</v>
+        <v>14.06841519592668</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.24612157299832</v>
+        <v>18.58285530700574</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.74990621318276</v>
+        <v>15.36729549453002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.597066772581899</v>
+        <v>16.1496639179541</v>
       </c>
       <c r="C22">
-        <v>6.088255351276716</v>
+        <v>9.497105385838548</v>
       </c>
       <c r="D22">
-        <v>5.333800434807976</v>
+        <v>5.708474447735515</v>
       </c>
       <c r="E22">
-        <v>14.04780851368942</v>
+        <v>19.45481288926075</v>
       </c>
       <c r="F22">
-        <v>24.54844358428128</v>
+        <v>20.81200605302912</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>20.48814564366165</v>
+        <v>13.18175359088858</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.480064684582491</v>
+        <v>14.49764559954885</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.41595712096998</v>
+        <v>19.25037424696136</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.71869459519734</v>
+        <v>15.49023090484207</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.469952109593855</v>
+        <v>15.87209698341822</v>
       </c>
       <c r="C23">
-        <v>6.015399099753579</v>
+        <v>9.348536957181382</v>
       </c>
       <c r="D23">
-        <v>5.309758740456101</v>
+        <v>5.647421084935278</v>
       </c>
       <c r="E23">
-        <v>13.94233582018649</v>
+        <v>19.05363594672532</v>
       </c>
       <c r="F23">
-        <v>24.53795757022237</v>
+        <v>20.60078211242367</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>20.51641170678642</v>
+        <v>13.20165324119816</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.367694209941261</v>
+        <v>14.27002040905752</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.32533371420367</v>
+        <v>18.89633718873467</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.7349422819033</v>
+        <v>15.42305239316815</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.973095754246845</v>
+        <v>14.77758932066364</v>
       </c>
       <c r="C24">
-        <v>5.729434225673981</v>
+        <v>8.765800422555081</v>
       </c>
       <c r="D24">
-        <v>5.216815353643788</v>
+        <v>5.409488603853602</v>
       </c>
       <c r="E24">
-        <v>13.54322837066218</v>
+        <v>17.48707979916748</v>
       </c>
       <c r="F24">
-        <v>24.51028749014061</v>
+        <v>19.82754407426989</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>20.63097825622491</v>
+        <v>13.30769041009896</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.926595579064315</v>
+        <v>13.37579752701969</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.98196188929646</v>
+        <v>17.50604419779067</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.8054813297787</v>
+        <v>15.20229812864818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.406505697084169</v>
+        <v>13.50392969018604</v>
       </c>
       <c r="C25">
-        <v>5.400362215860284</v>
+        <v>8.094563543916706</v>
       </c>
       <c r="D25">
-        <v>5.112762138202227</v>
+        <v>5.139192368174241</v>
       </c>
       <c r="E25">
-        <v>13.11615760077366</v>
+        <v>15.74874445717566</v>
       </c>
       <c r="F25">
-        <v>24.50622602851738</v>
+        <v>19.05159367053222</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>20.77053715954398</v>
+        <v>13.48081301870011</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.418916833089551</v>
+        <v>12.3429531266494</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.61328190770182</v>
+        <v>15.89825221596692</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.90069884956073</v>
+        <v>15.03139578338573</v>
       </c>
     </row>
   </sheetData>
